--- a/biology/Botanique/Collomia/Collomia.xlsx
+++ b/biology/Botanique/Collomia/Collomia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Collomia est un genre de plantes à fleurs de la famille des Polémoniacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (26 juin 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (26 juin 2023) :
 Collomia biflora (Ruiz &amp; Pav.) Brand
 Collomia debilis (S. Wats.) Greene
 Collomia diversifolia Greene
@@ -528,7 +542,7 @@
 Collomia tenella Gray
 Collomia tinctoria Kellogg
 Collomia tracyi Mason
-Selon NCBI  (26 juin 2023)[2] :
+Selon NCBI  (26 juin 2023) :
 Collomia biflora (Ruiz &amp; Pav.) Brand
 Collomia cavanillesii Hook. &amp; Arn.
 Collomia debilis (S.Watson) Greene
@@ -546,7 +560,7 @@
 Collomia tinctoria Kellogg
 Collomia tracyi H.Mason
 Collomia wilkenii L.A.Johnson &amp; R.L.Johnson
-Selon The Plant List            (26 juin 2023)[3] :
+Selon The Plant List            (26 juin 2023) :
 Collomia biflora (Ruiz &amp; Pav.) Brand
 Collomia debilis (S.Watson) Greene
 Collomia diversifolia Greene
@@ -562,7 +576,7 @@
 Collomia tinctoria Kellogg
 Collomia tracyi R.Mason
 Collomia wilkenii L.A.Johnson &amp; R.L.Johnson
-Selon Tropicos                                           (26 juin 2023)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (26 juin 2023) (Attention liste brute contenant possiblement des synonymes) :
 Collomia aristella (A. Gray) Rydb.
 Collomia biflora (Ruiz &amp; Pav.) Brand
 Collomia cavanillesiana G. Don
